--- a/biology/Zoologie/Arthropleuridea/Arthropleuridea.xlsx
+++ b/biology/Zoologie/Arthropleuridea/Arthropleuridea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arthropleuridea sont une sous-classe éteinte de myriapodes de la classe des Diplopoda. Elle s’est développée durant le Carbonifère et le Silurien, et s’est éteinte au Cisuralien.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-classe des Arthropleuridea a été créée en 1934 par le géologue et paléontologue français Gérard Waterlot (d) (1904-1982)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-classe des Arthropleuridea a été créée en 1934 par le géologue et paléontologue français Gérard Waterlot (d) (1904-1982),.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (17 août 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (17 août 2022) :
 † Arthropleurida Waterlot, 1934
-The Taxonomicon  (17 août 2022)[3] mentionne également les ordres suivants mais qui ne sont représentés par aucun taxon :
+The Taxonomicon  (17 août 2022) mentionne également les ordres suivants mais qui ne sont représentés par aucun taxon :
 † Eoarthropleurida
 † Microdecemplicida</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Waterlot, Études des gîtes minéraux de la France. Bassin houiller de la Sarre et de la Lorraine. 2, Faune fossile. Étude de la faune continentale du terrain houiller sarro-lorrain, Imprimerie de L. Danel, 1934, 317 p. (OCLC 999590629)</t>
         </is>
